--- a/renewable_comp.xlsx
+++ b/renewable_comp.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AO3"/>
+  <dimension ref="A1:AT3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:41">
+    <row r="1" spans="1:46">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -493,16 +493,31 @@
       <c r="AO1" s="1">
         <v>39</v>
       </c>
+      <c r="AP1" s="1">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>44</v>
+      </c>
     </row>
-    <row r="2" spans="1:41">
+    <row r="2" spans="1:46">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D2">
         <v>13</v>
@@ -517,67 +532,67 @@
         <v>13</v>
       </c>
       <c r="H2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I2">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J2">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="K2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M2">
         <v>10</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="U2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="V2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="W2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="X2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Y2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Z2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -613,135 +628,165 @@
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:41">
+    <row r="3" spans="1:46">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
         <v>8</v>
       </c>
-      <c r="C3">
+      <c r="M3">
         <v>8</v>
       </c>
-      <c r="D3">
+      <c r="N3">
         <v>8</v>
       </c>
-      <c r="E3">
+      <c r="O3">
         <v>8</v>
       </c>
-      <c r="F3">
-        <v>7</v>
-      </c>
-      <c r="G3">
-        <v>7</v>
-      </c>
-      <c r="H3">
-        <v>7</v>
-      </c>
-      <c r="I3">
-        <v>7</v>
-      </c>
-      <c r="J3">
-        <v>7</v>
-      </c>
-      <c r="K3">
-        <v>7</v>
-      </c>
-      <c r="L3">
-        <v>7</v>
-      </c>
-      <c r="M3">
-        <v>7</v>
-      </c>
-      <c r="N3">
-        <v>9</v>
-      </c>
-      <c r="O3">
-        <v>9</v>
-      </c>
       <c r="P3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="U3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="V3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="W3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="X3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Y3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Z3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AA3">
+        <v>3</v>
+      </c>
+      <c r="AB3">
+        <v>3</v>
+      </c>
+      <c r="AC3">
+        <v>3</v>
+      </c>
+      <c r="AD3">
+        <v>3</v>
+      </c>
+      <c r="AE3">
+        <v>3</v>
+      </c>
+      <c r="AF3">
+        <v>3</v>
+      </c>
+      <c r="AG3">
+        <v>3</v>
+      </c>
+      <c r="AH3">
+        <v>3</v>
+      </c>
+      <c r="AI3">
+        <v>3</v>
+      </c>
+      <c r="AJ3">
+        <v>3</v>
+      </c>
+      <c r="AK3">
         <v>6</v>
       </c>
-      <c r="AB3">
-        <v>6</v>
-      </c>
-      <c r="AC3">
-        <v>6</v>
-      </c>
-      <c r="AD3">
-        <v>6</v>
-      </c>
-      <c r="AE3">
-        <v>6</v>
-      </c>
-      <c r="AF3">
-        <v>3</v>
-      </c>
-      <c r="AG3">
-        <v>3</v>
-      </c>
-      <c r="AH3">
-        <v>3</v>
-      </c>
-      <c r="AI3">
-        <v>3</v>
-      </c>
-      <c r="AJ3">
-        <v>1</v>
-      </c>
-      <c r="AK3">
-        <v>1</v>
-      </c>
       <c r="AL3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AM3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="AP3">
+        <v>4</v>
+      </c>
+      <c r="AQ3">
+        <v>4</v>
+      </c>
+      <c r="AR3">
+        <v>4</v>
+      </c>
+      <c r="AS3">
+        <v>4</v>
+      </c>
+      <c r="AT3">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
